--- a/talks.xlsx
+++ b/talks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arsh04\Documents\GitHub\syedmurtazaarshad.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EDAF2E-4681-4026-9900-104526D329DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B3C260-3793-48F9-A5CE-52DF6857A0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{07048BE7-8B43-4C00-BB92-03975BBB5E65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{07048BE7-8B43-4C00-BB92-03975BBB5E65}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,10 +89,10 @@
     <t>/assets/files/EMORe_Poster_Arshad_2024.pdf</t>
   </si>
   <si>
-    <t>/assets/files/CORe_Poster_Arshad_2023.pdf</t>
-  </si>
-  <si>
     <t>/assets/files/CORe_ISMRM'23_Arshad.MOV</t>
+  </si>
+  <si>
+    <t>https://buckeyemailosu-my.sharepoint.com/:v:/g/personal/arshad_32_buckeyemail_osu_edu/EQQ-d9V8U1NBsBGK47P0xAwBaYm3k7p5Usy8OVu6gxJvPQ?e=w1fwv6</t>
   </si>
 </sst>
 </file>
@@ -100,9 +100,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +114,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -136,10 +144,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -147,11 +156,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -487,7 +500,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,10 +589,10 @@
         <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -592,8 +605,8 @@
       <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>17</v>
+      <c r="E6" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -617,6 +630,9 @@
       <formula1>"Poster, Oral"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{6A048C9E-EE60-4F0A-8479-CDD8156DB358}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/talks.xlsx
+++ b/talks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arsh04\Documents\GitHub\syedmurtazaarshad.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B3C260-3793-48F9-A5CE-52DF6857A0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9D25AB-2A1F-4832-8009-66618F35943A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{07048BE7-8B43-4C00-BB92-03975BBB5E65}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Type</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Poster</t>
   </si>
   <si>
-    <t>Kraus Memorial Poster Competition ’24, The Ohio State University, Columbus, OH. | 2nd Position Winner</t>
-  </si>
-  <si>
     <t>Motion robust 3D cine imaging using Compressive Recovery with Outlier Rejection (CORe).</t>
   </si>
   <si>
@@ -93,6 +90,18 @@
   </si>
   <si>
     <t>https://buckeyemailosu-my.sharepoint.com/:v:/g/personal/arshad_32_buckeyemail_osu_edu/EQQ-d9V8U1NBsBGK47P0xAwBaYm3k7p5Usy8OVu6gxJvPQ?e=w1fwv6</t>
+  </si>
+  <si>
+    <t>EMORe: Motion-robust free-breathing volumetric cardiovascular magnetic resonance image reconstruction using Expectation-Maximization (EM) algorithm</t>
+  </si>
+  <si>
+    <t>https://cgs.osu.edu/programs-events/edward-f-hayes-advanced-research-forum/hayes-2025-winners</t>
+  </si>
+  <si>
+    <t>Kraus Memorial Poster Competition ’24, The Ohio State University, Columbus, OH. | 2nd Place Winner</t>
+  </si>
+  <si>
+    <t>2025 Hayes Advanced Research Forum, The Ohio State University, Columbus, OH | 2nd Place Winner</t>
   </si>
 </sst>
 </file>
@@ -500,7 +509,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,7 +547,7 @@
         <v>45688</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -552,13 +561,13 @@
         <v>45559</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -569,10 +578,10 @@
         <v>45316</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -583,13 +592,13 @@
         <v>45082</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="165" x14ac:dyDescent="0.25">
@@ -600,16 +609,31 @@
         <v>45188</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="E6" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>45716</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">

--- a/talks.xlsx
+++ b/talks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arsh04\Documents\GitHub\syedmurtazaarshad.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9D25AB-2A1F-4832-8009-66618F35943A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B83AFC-3F2D-4052-88C4-638D2756F021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{07048BE7-8B43-4C00-BB92-03975BBB5E65}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{07048BE7-8B43-4C00-BB92-03975BBB5E65}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>Type</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>2025 Hayes Advanced Research Forum, The Ohio State University, Columbus, OH | 2nd Place Winner</t>
+  </si>
+  <si>
+    <t>Motion-robust whole-heart 5D MRI using Expectation-Maximization-Guided Binning Correction and Outlier Rejection (EMORe)</t>
+  </si>
+  <si>
+    <t>Upcoming SCMR'26, Rio de Janeiro, Brazil</t>
   </si>
 </sst>
 </file>
@@ -508,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7023E46-40CD-4BE3-8BFE-739CEFDB681F}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,7 +642,19 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>46057</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -659,4 +677,10 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{8db864bc-821c-4dd3-a9c9-5002b5129ec6}" enabled="1" method="Standard" siteId="{0b95a125-791c-4f0a-9f9e-99e363117506}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/talks.xlsx
+++ b/talks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arsh04\Documents\GitHub\syedmurtazaarshad.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B83AFC-3F2D-4052-88C4-638D2756F021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9FAF15-D126-432B-8202-9AAB4372F1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{07048BE7-8B43-4C00-BB92-03975BBB5E65}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{07048BE7-8B43-4C00-BB92-03975BBB5E65}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -514,7 +514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7023E46-40CD-4BE3-8BFE-739CEFDB681F}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>

--- a/talks.xlsx
+++ b/talks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arsh04\Documents\GitHub\syedmurtazaarshad.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9FAF15-D126-432B-8202-9AAB4372F1CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD469F34-F372-4088-880F-FF3EED80862C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{07048BE7-8B43-4C00-BB92-03975BBB5E65}"/>
   </bookViews>
@@ -107,7 +107,7 @@
     <t>Motion-robust whole-heart 5D MRI using Expectation-Maximization-Guided Binning Correction and Outlier Rejection (EMORe)</t>
   </si>
   <si>
-    <t>Upcoming SCMR'26, Rio de Janeiro, Brazil</t>
+    <t>SCMR'26, Rio de Janeiro, Brazil</t>
   </si>
 </sst>
 </file>
@@ -515,7 +515,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
